--- a/재무보고서.xlsx
+++ b/재무보고서.xlsx
@@ -55,7 +55,7 @@
     <t>2020. 1. 1.</t>
   </si>
   <si>
-    <t>328</t>
+    <t>338</t>
   </si>
   <si>
     <t>22,125,034,978,750원</t>
